--- a/DwellScanningEyeTrack/img_training/Week7/map4.xlsx
+++ b/DwellScanningEyeTrack/img_training/Week7/map4.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\עמית 1 נוב 2013\פוסט\collaborations GCMRT\DP studies - NIH\Training task\Final - mixed blocks\Block 4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\עמית 1 נוב 2013\פוסט\collaborations GCMRT\DP studies - NIH\Training task\Take 2\Final - mixed blocks\Block 4\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="גיליון1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -90,10 +90,10 @@
     <t>block 4 matrix 1.bmp</t>
   </si>
   <si>
+    <t>DI</t>
+  </si>
+  <si>
     <t>NE</t>
-  </si>
-  <si>
-    <t>DI</t>
   </si>
   <si>
     <t>block 4 matrix 2.bmp</t>
@@ -1006,19 +1006,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A17" sqref="A17:XFD31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="2.9296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.73046875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.53125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.1328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.3984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="14" width="4.796875" bestFit="1" customWidth="1"/>
-    <col min="15" max="21" width="5.86328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.46484375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.53125" bestFit="1" customWidth="1"/>
+    <col min="6" max="13" width="9.46484375" bestFit="1" customWidth="1"/>
+    <col min="14" max="21" width="10.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -1106,40 +1103,40 @@
         <v>24</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J2" t="s">
         <v>23</v>
       </c>
       <c r="K2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N2" t="s">
         <v>24</v>
       </c>
       <c r="O2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="T2" t="s">
         <v>23</v>
@@ -1165,16 +1162,16 @@
         <v>24</v>
       </c>
       <c r="G3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I3" t="s">
         <v>23</v>
       </c>
       <c r="J3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K3" t="s">
         <v>23</v>
@@ -1186,25 +1183,25 @@
         <v>23</v>
       </c>
       <c r="N3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Q3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="R3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="T3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="U3" t="s">
         <v>24</v>
@@ -1236,25 +1233,25 @@
         <v>23</v>
       </c>
       <c r="J4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K4" t="s">
         <v>24</v>
       </c>
       <c r="L4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O4" t="s">
         <v>23</v>
       </c>
       <c r="P4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Q4" t="s">
         <v>23</v>
@@ -1263,7 +1260,7 @@
         <v>23</v>
       </c>
       <c r="S4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="T4" t="s">
         <v>24</v>
@@ -1286,16 +1283,16 @@
         <v>27</v>
       </c>
       <c r="F5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J5" t="s">
         <v>23</v>
@@ -1304,10 +1301,10 @@
         <v>23</v>
       </c>
       <c r="L5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N5" t="s">
         <v>24</v>
@@ -1316,13 +1313,13 @@
         <v>24</v>
       </c>
       <c r="P5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Q5" t="s">
         <v>24</v>
       </c>
       <c r="R5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="S5" t="s">
         <v>23</v>
@@ -1348,22 +1345,22 @@
         <v>28</v>
       </c>
       <c r="F6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G6" t="s">
         <v>23</v>
       </c>
       <c r="H6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L6" t="s">
         <v>24</v>
@@ -1378,19 +1375,19 @@
         <v>23</v>
       </c>
       <c r="P6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="R6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="S6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="T6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="U6" t="s">
         <v>24</v>
@@ -1413,19 +1410,19 @@
         <v>23</v>
       </c>
       <c r="G7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J7" t="s">
         <v>24</v>
       </c>
       <c r="K7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L7" t="s">
         <v>24</v>
@@ -1434,16 +1431,16 @@
         <v>24</v>
       </c>
       <c r="N7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P7" t="s">
         <v>23</v>
       </c>
       <c r="Q7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R7" t="s">
         <v>23</v>
@@ -1452,7 +1449,7 @@
         <v>23</v>
       </c>
       <c r="T7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="U7" t="s">
         <v>24</v>
@@ -1475,16 +1472,16 @@
         <v>24</v>
       </c>
       <c r="G8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K8" t="s">
         <v>23</v>
@@ -1511,13 +1508,13 @@
         <v>23</v>
       </c>
       <c r="S8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="T8" t="s">
         <v>23</v>
       </c>
       <c r="U8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -1534,13 +1531,13 @@
         <v>31</v>
       </c>
       <c r="F9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I9" t="s">
         <v>24</v>
@@ -1549,7 +1546,7 @@
         <v>24</v>
       </c>
       <c r="K9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L9" t="s">
         <v>23</v>
@@ -1558,19 +1555,19 @@
         <v>23</v>
       </c>
       <c r="N9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O9" t="s">
         <v>24</v>
       </c>
       <c r="P9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="S9" t="s">
         <v>24</v>
@@ -1596,10 +1593,10 @@
         <v>32</v>
       </c>
       <c r="F10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H10" t="s">
         <v>24</v>
@@ -1608,28 +1605,28 @@
         <v>24</v>
       </c>
       <c r="J10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L10" t="s">
         <v>24</v>
       </c>
       <c r="M10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N10" t="s">
         <v>23</v>
       </c>
       <c r="O10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P10" t="s">
         <v>23</v>
       </c>
       <c r="Q10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R10" t="s">
         <v>23</v>
@@ -1641,7 +1638,7 @@
         <v>24</v>
       </c>
       <c r="U10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -1658,7 +1655,7 @@
         <v>33</v>
       </c>
       <c r="F11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G11" t="s">
         <v>23</v>
@@ -1667,7 +1664,7 @@
         <v>24</v>
       </c>
       <c r="I11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J11" t="s">
         <v>23</v>
@@ -1676,10 +1673,10 @@
         <v>23</v>
       </c>
       <c r="L11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N11" t="s">
         <v>24</v>
@@ -1688,13 +1685,13 @@
         <v>24</v>
       </c>
       <c r="P11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Q11" t="s">
         <v>23</v>
       </c>
       <c r="R11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="S11" t="s">
         <v>24</v>
@@ -1720,7 +1717,7 @@
         <v>34</v>
       </c>
       <c r="F12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G12" t="s">
         <v>24</v>
@@ -1729,7 +1726,7 @@
         <v>24</v>
       </c>
       <c r="I12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J12" t="s">
         <v>23</v>
@@ -1747,19 +1744,19 @@
         <v>24</v>
       </c>
       <c r="O12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Q12" t="s">
         <v>23</v>
       </c>
       <c r="R12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="T12" t="s">
         <v>23</v>
@@ -1785,7 +1782,7 @@
         <v>24</v>
       </c>
       <c r="G13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H13" t="s">
         <v>24</v>
@@ -1797,25 +1794,25 @@
         <v>23</v>
       </c>
       <c r="K13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L13" t="s">
         <v>23</v>
       </c>
       <c r="M13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P13" t="s">
         <v>24</v>
       </c>
       <c r="Q13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R13" t="s">
         <v>24</v>
@@ -1844,40 +1841,40 @@
         <v>36</v>
       </c>
       <c r="F14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G14" t="s">
         <v>23</v>
       </c>
       <c r="H14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I14" t="s">
         <v>23</v>
       </c>
       <c r="J14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L14" t="s">
         <v>24</v>
       </c>
       <c r="M14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O14" t="s">
         <v>23</v>
       </c>
       <c r="P14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Q14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R14" t="s">
         <v>24</v>
@@ -1906,16 +1903,16 @@
         <v>37</v>
       </c>
       <c r="F15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J15" t="s">
         <v>23</v>
@@ -1933,16 +1930,16 @@
         <v>24</v>
       </c>
       <c r="O15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Q15" t="s">
         <v>23</v>
       </c>
       <c r="R15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S15" t="s">
         <v>23</v>
@@ -1951,7 +1948,7 @@
         <v>24</v>
       </c>
       <c r="U15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -1968,7 +1965,7 @@
         <v>38</v>
       </c>
       <c r="F16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G16" t="s">
         <v>24</v>
@@ -1977,7 +1974,7 @@
         <v>23</v>
       </c>
       <c r="I16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J16" t="s">
         <v>23</v>
@@ -1986,28 +1983,28 @@
         <v>24</v>
       </c>
       <c r="L16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M16" t="s">
         <v>23</v>
       </c>
       <c r="N16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P16" t="s">
         <v>23</v>
       </c>
       <c r="Q16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="T16" t="s">
         <v>24</v>
@@ -2030,10 +2027,10 @@
         <v>39</v>
       </c>
       <c r="F17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H17" t="s">
         <v>23</v>
@@ -2063,19 +2060,19 @@
         <v>24</v>
       </c>
       <c r="Q17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="R17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="T17" t="s">
         <v>24</v>
       </c>
       <c r="U17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -2092,10 +2089,10 @@
         <v>40</v>
       </c>
       <c r="F18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H18" t="s">
         <v>23</v>
@@ -2104,7 +2101,7 @@
         <v>23</v>
       </c>
       <c r="J18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K18" t="s">
         <v>24</v>
@@ -2137,7 +2134,7 @@
         <v>23</v>
       </c>
       <c r="U18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -2154,16 +2151,16 @@
         <v>41</v>
       </c>
       <c r="F19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H19" t="s">
         <v>24</v>
       </c>
       <c r="I19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J19" t="s">
         <v>24</v>
@@ -2181,16 +2178,16 @@
         <v>23</v>
       </c>
       <c r="O19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="R19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S19" t="s">
         <v>23</v>
@@ -2199,7 +2196,7 @@
         <v>23</v>
       </c>
       <c r="U19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -2234,22 +2231,22 @@
         <v>24</v>
       </c>
       <c r="L20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O20" t="s">
         <v>23</v>
       </c>
       <c r="P20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Q20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R20" t="s">
         <v>23</v>
@@ -2261,7 +2258,7 @@
         <v>24</v>
       </c>
       <c r="U20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -2293,10 +2290,10 @@
         <v>24</v>
       </c>
       <c r="K21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M21" t="s">
         <v>23</v>
@@ -2305,19 +2302,19 @@
         <v>23</v>
       </c>
       <c r="O21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Q21" t="s">
         <v>24</v>
       </c>
       <c r="R21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="S21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="T21" t="s">
         <v>24</v>
@@ -2340,16 +2337,16 @@
         <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I22" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J22" t="s">
         <v>23</v>
@@ -2361,7 +2358,7 @@
         <v>24</v>
       </c>
       <c r="M22" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N22" t="s">
         <v>24</v>
@@ -2382,7 +2379,7 @@
         <v>24</v>
       </c>
       <c r="T22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="U22" t="s">
         <v>24</v>
@@ -2405,16 +2402,16 @@
         <v>23</v>
       </c>
       <c r="G23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H23" t="s">
         <v>24</v>
       </c>
       <c r="I23" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J23" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K23" t="s">
         <v>23</v>
@@ -2423,31 +2420,31 @@
         <v>24</v>
       </c>
       <c r="M23" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N23" t="s">
         <v>23</v>
       </c>
       <c r="O23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P23" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Q23" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="R23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S23" t="s">
         <v>24</v>
       </c>
       <c r="T23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="U23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -2467,7 +2464,7 @@
         <v>23</v>
       </c>
       <c r="G24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H24" t="s">
         <v>24</v>
@@ -2482,19 +2479,19 @@
         <v>23</v>
       </c>
       <c r="L24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O24" t="s">
         <v>24</v>
       </c>
       <c r="P24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q24" t="s">
         <v>23</v>
@@ -2503,13 +2500,13 @@
         <v>24</v>
       </c>
       <c r="S24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="T24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="U24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -2526,16 +2523,16 @@
         <v>47</v>
       </c>
       <c r="F25" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H25" t="s">
         <v>23</v>
       </c>
       <c r="I25" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J25" t="s">
         <v>23</v>
@@ -2547,7 +2544,7 @@
         <v>24</v>
       </c>
       <c r="M25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N25" t="s">
         <v>24</v>
@@ -2565,13 +2562,13 @@
         <v>24</v>
       </c>
       <c r="S25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="T25" t="s">
         <v>23</v>
       </c>
       <c r="U25" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -2588,25 +2585,25 @@
         <v>48</v>
       </c>
       <c r="F26" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G26" t="s">
         <v>23</v>
       </c>
       <c r="H26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J26" t="s">
         <v>23</v>
       </c>
       <c r="K26" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M26" t="s">
         <v>24</v>
@@ -2615,25 +2612,25 @@
         <v>24</v>
       </c>
       <c r="O26" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q26" t="s">
         <v>24</v>
       </c>
       <c r="R26" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="S26" t="s">
         <v>23</v>
       </c>
       <c r="T26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="U26" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -2650,7 +2647,7 @@
         <v>49</v>
       </c>
       <c r="F27" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G27" t="s">
         <v>24</v>
@@ -2659,22 +2656,22 @@
         <v>24</v>
       </c>
       <c r="I27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J27" t="s">
         <v>23</v>
       </c>
       <c r="K27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L27" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M27" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N27" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O27" t="s">
         <v>24</v>
@@ -2683,7 +2680,7 @@
         <v>23</v>
       </c>
       <c r="Q27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R27" t="s">
         <v>23</v>
@@ -2695,7 +2692,7 @@
         <v>24</v>
       </c>
       <c r="U27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -2736,7 +2733,7 @@
         <v>24</v>
       </c>
       <c r="N28" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O28" t="s">
         <v>24</v>
@@ -2745,10 +2742,10 @@
         <v>23</v>
       </c>
       <c r="Q28" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="R28" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S28" t="s">
         <v>23</v>
@@ -2757,7 +2754,7 @@
         <v>23</v>
       </c>
       <c r="U28" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -2774,7 +2771,7 @@
         <v>51</v>
       </c>
       <c r="F29" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G29" t="s">
         <v>24</v>
@@ -2783,10 +2780,10 @@
         <v>23</v>
       </c>
       <c r="I29" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J29" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K29" t="s">
         <v>24</v>
@@ -2801,22 +2798,22 @@
         <v>23</v>
       </c>
       <c r="O29" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P29" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Q29" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="R29" t="s">
         <v>24</v>
       </c>
       <c r="S29" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="T29" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="U29" t="s">
         <v>24</v>
@@ -2836,10 +2833,10 @@
         <v>52</v>
       </c>
       <c r="F30" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H30" t="s">
         <v>24</v>
@@ -2848,7 +2845,7 @@
         <v>23</v>
       </c>
       <c r="J30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K30" t="s">
         <v>23</v>
@@ -2857,10 +2854,10 @@
         <v>24</v>
       </c>
       <c r="M30" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O30" t="s">
         <v>24</v>
@@ -2869,16 +2866,16 @@
         <v>23</v>
       </c>
       <c r="Q30" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="R30" t="s">
         <v>23</v>
       </c>
       <c r="S30" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="T30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="U30" t="s">
         <v>24</v>
@@ -2901,19 +2898,19 @@
         <v>24</v>
       </c>
       <c r="G31" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H31" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I31" t="s">
         <v>24</v>
       </c>
       <c r="J31" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L31" t="s">
         <v>23</v>
@@ -2922,10 +2919,10 @@
         <v>24</v>
       </c>
       <c r="N31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O31" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P31" t="s">
         <v>24</v>
@@ -2937,13 +2934,13 @@
         <v>23</v>
       </c>
       <c r="S31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="T31" t="s">
         <v>23</v>
       </c>
       <c r="U31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
